--- a/SuppXLS/Scen_ELC_NoFossil2035.xlsx
+++ b/SuppXLS/Scen_ELC_NoFossil2035.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="20730" windowHeight="11760" activeTab="2"/>
@@ -15,12 +15,12 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ELC!$C$13:$N$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ELC!$C$13:$M$17</definedName>
     <definedName name="FIXWSTBP">'[1]O&amp;M waste '!$C$4</definedName>
     <definedName name="VARWSTBO">'[1]O&amp;M waste '!$D$5</definedName>
     <definedName name="VARWSTBP">'[1]O&amp;M waste '!$D$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -30,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Year</t>
   </si>
@@ -70,12 +70,6 @@
   </si>
   <si>
     <t>Trans - Insert</t>
-  </si>
-  <si>
-    <t>DKW</t>
-  </si>
-  <si>
-    <t>DKE</t>
   </si>
   <si>
     <t>UP</t>
@@ -146,26 +140,29 @@
   <si>
     <t>RESCO2</t>
   </si>
+  <si>
+    <t>SHR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="14">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
-    <numFmt numFmtId="173" formatCode="0_ ;\-0\ "/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="#,##0;\-\ #,##0;_-\ &quot;- &quot;"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
+    <numFmt numFmtId="172" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="175" formatCode="#,##0;\-\ #,##0;_-\ &quot;- &quot;"/>
   </numFmts>
   <fonts count="64">
     <font>
@@ -1188,8 +1185,8 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="3" fillId="35" borderId="9" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="3" fillId="35" borderId="9" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1501,10 +1498,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
@@ -1530,130 +1527,130 @@
     <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="14">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -1673,629 +1670,629 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2307,7 +2304,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2335,138 +2332,138 @@
     <xf numFmtId="4" fontId="38" fillId="0" borderId="0" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2476,7 +2473,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="48" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="172" fontId="48" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2493,2582 +2490,2582 @@
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -5209,7 +5206,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -5244,27 +5241,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -5284,7 +5281,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -5300,7 +5297,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -5385,7 +5382,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -5413,7 +5410,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -5519,7 +5516,7 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="33" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="172" fontId="33" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -5557,7 +5554,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="33" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="172" fontId="33" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -5872,7 +5869,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="33" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="172" fontId="33" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="4" fontId="38" fillId="0" borderId="10" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -6150,780 +6147,780 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="55" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="57" fillId="55" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -6965,7 +6962,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -17022,7 +17019,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17057,7 +17054,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17275,32 +17272,32 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
-    <col min="5" max="5" width="91.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="43.5703125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="13.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" style="7"/>
+    <col min="5" max="5" width="91.1328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.59765625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="19" customFormat="1">
@@ -17308,17 +17305,17 @@
         <v>42531</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="19" t="str">
         <f>ADDRESS(ROW(ELC!C13),COLUMN(ELC!C13),4,1)</f>
         <v>C13</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -17326,10 +17323,10 @@
         <v>42509</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -17349,69 +17346,69 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.1328125" style="12"/>
     <col min="2" max="2" width="24" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="138.42578125" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="12"/>
+    <col min="3" max="3" width="138.3984375" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18.75">
+    <row r="1" spans="2:3" ht="18">
       <c r="B1" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="14.25">
+      <c r="B3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="14.25">
+      <c r="B4" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="C4" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="2:3" ht="15">
-      <c r="B3" s="14" t="s">
+    <row r="5" spans="2:3" ht="14.25">
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="2:3" ht="14.25">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="2:3" ht="14.25">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="2:3" ht="14.25">
+      <c r="B8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="4" spans="2:3" ht="15">
-      <c r="B4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>27</v>
-      </c>
+    <row r="9" spans="2:3" ht="14.25">
+      <c r="B9" s="14"/>
     </row>
-    <row r="5" spans="2:3" ht="15">
-      <c r="B5" s="14"/>
-    </row>
-    <row r="6" spans="2:3" ht="15">
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7" spans="2:3" ht="15">
-      <c r="B7" s="14"/>
-    </row>
-    <row r="8" spans="2:3" ht="15">
-      <c r="B8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="12" t="s">
+    <row r="10" spans="2:3" ht="14.25">
+      <c r="B10" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="15">
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="2:3" ht="15">
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15">
+    <row r="11" spans="2:3" ht="14.25">
       <c r="B11" s="14"/>
     </row>
-    <row r="12" spans="2:3" ht="15">
+    <row r="12" spans="2:3" ht="14.25">
       <c r="B12" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -17425,36 +17422,35 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1">
+    <row r="3" spans="1:13" ht="14.65" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -17468,36 +17464,30 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="7" customFormat="1">
+    <row r="4" spans="1:13" s="7" customFormat="1">
       <c r="B4" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>2035</v>
@@ -17505,19 +17495,16 @@
       <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
+      <c r="G5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -17525,14 +17512,11 @@
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
+      <c r="G6" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:13">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -17544,9 +17528,8 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:13">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -17558,9 +17541,8 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:13">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -17572,9 +17554,8 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:13">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
@@ -17586,9 +17567,8 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:13">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
@@ -17600,9 +17580,8 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:13">
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -17613,9 +17592,8 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:13">
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -17626,9 +17604,8 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:13">
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -17639,7 +17616,6 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
